--- a/biology/Biologie cellulaire et moléculaire/Micronoyau_(biologie_cellulaire)/Micronoyau_(biologie_cellulaire).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Micronoyau_(biologie_cellulaire)/Micronoyau_(biologie_cellulaire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie cellulaire, un micronoyau (ou micronucléus) est une « entité nucléaire » dans une cellule vivante, qui s'est formée anormalement hors du noyau cellulaire (il peut y avoir plusieurs micronoyaux dans une même cellule). 
-Ce dommage intracellulaire est stable (il persistera durant toute la durée de vie de la cellule, associé à un effet mutagène, et parfois cancérogène[1]). Dans les cellules à vie longue (ex : neurone), il a une rémanence longue. Cette anomalie chromosomique peut nuire au fonctionnellement de la cellule et parfois provoquer sa mort (apoptose) ou initier une tumeur ou un cancer[1].
+Ce dommage intracellulaire est stable (il persistera durant toute la durée de vie de la cellule, associé à un effet mutagène, et parfois cancérogène). Dans les cellules à vie longue (ex : neurone), il a une rémanence longue. Cette anomalie chromosomique peut nuire au fonctionnellement de la cellule et parfois provoquer sa mort (apoptose) ou initier une tumeur ou un cancer.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les micro noyaux se forment à partir d'une perte de fragments de chromosomes ou de chromosomes entiers au moment la division nucléaire. Cette perte peut être induite par un ou des agent(s) génotoxique(s) et clastogène(s) (c'est-à-dire responsable de cassures du double brin de la molécule d'ADN) ou induite par un agent « aneugène » (c'est-à-dire altérant l'appareil mitotique qui permet la division cellulaire)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les micro noyaux se forment à partir d'une perte de fragments de chromosomes ou de chromosomes entiers au moment la division nucléaire. Cette perte peut être induite par un ou des agent(s) génotoxique(s) et clastogène(s) (c'est-à-dire responsable de cassures du double brin de la molécule d'ADN) ou induite par un agent « aneugène » (c'est-à-dire altérant l'appareil mitotique qui permet la division cellulaire).
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Le test des micronoyaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un test écotoxicologique ou de biomonitoring très utilisé qui vise à détecter et compter les micronoyaux dans des cellules exposées (généralement in vitro) à un agent génotoxique ou supposé tel. 
-Il peut aussi être appliqué à un échantillon de cellules exposées in vivo (lymphocytes d'animal de laboratoire par exemple, ou de sujets humains potentiellement exposés à un produit génotoxique)[3] ;
+Il peut aussi être appliqué à un échantillon de cellules exposées in vivo (lymphocytes d'animal de laboratoire par exemple, ou de sujets humains potentiellement exposés à un produit génotoxique) ;
 </t>
         </is>
       </c>
